--- a/data/raster/Mapbiomas_cover_lourenco_utm/mapbiomas_6_legend.xlsx
+++ b/data/raster/Mapbiomas_cover_lourenco_utm/mapbiomas_6_legend.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="6990"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
   <si>
     <t>aid</t>
   </si>
@@ -331,13 +331,115 @@
   </si>
   <si>
     <t>45C2A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formação Florestal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formação Savânica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formação Natural não Florestal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo Alagado e Área Pantanosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formação Campestre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apicum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outras Formações não Florestais </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agropecuária </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavoura Temporária </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cana </t>
+  </si>
+  <si>
+    <t>Restinga Arborizada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavoura Perene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outras Lavouras Temporárias </t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afloramento Rochoso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastagem </t>
+  </si>
+  <si>
+    <t>Floresta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3. Mineração </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.2. Aquicultura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvicultura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosaico de Agricultura e Pastagem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área não Vegetada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praia, Duna e Areal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área Urbanizada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outras Áreas não Vegetadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corpo D'água </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não Observado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio, Lago e Oceano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outras Lavouras Perenes </t>
+  </si>
+  <si>
+    <t>classe_descricao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,9 +486,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,7 +526,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -458,7 +560,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -493,10 +594,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,14 +769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -684,7 +784,7 @@
     <col min="6" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,8 +803,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -723,8 +826,11 @@
       <c r="F2" s="1">
         <v>129912</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>3</v>
       </c>
@@ -743,8 +849,11 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
@@ -763,8 +872,11 @@
       <c r="F4" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
@@ -783,8 +895,11 @@
       <c r="F5" s="1">
         <v>687537</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>9</v>
       </c>
@@ -803,8 +918,11 @@
       <c r="F6" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>10</v>
       </c>
@@ -823,8 +941,11 @@
       <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>11</v>
       </c>
@@ -843,8 +964,11 @@
       <c r="F8" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>12</v>
       </c>
@@ -863,8 +987,11 @@
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>13</v>
       </c>
@@ -883,8 +1010,11 @@
       <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>14</v>
       </c>
@@ -903,8 +1033,11 @@
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>15</v>
       </c>
@@ -923,8 +1056,11 @@
       <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>18</v>
       </c>
@@ -943,8 +1079,11 @@
       <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>19</v>
       </c>
@@ -963,8 +1102,11 @@
       <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>20</v>
       </c>
@@ -983,8 +1125,11 @@
       <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>21</v>
       </c>
@@ -1003,8 +1148,11 @@
       <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1023,8 +1171,11 @@
       <c r="F17" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>23</v>
       </c>
@@ -1043,8 +1194,11 @@
       <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>24</v>
       </c>
@@ -1063,8 +1217,11 @@
       <c r="F19" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1083,8 +1240,11 @@
       <c r="F20" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1103,8 +1263,11 @@
       <c r="F21" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>27</v>
       </c>
@@ -1123,8 +1286,11 @@
       <c r="F22" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>29</v>
       </c>
@@ -1143,8 +1309,11 @@
       <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>30</v>
       </c>
@@ -1163,8 +1332,11 @@
       <c r="F24" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>31</v>
       </c>
@@ -1183,8 +1355,11 @@
       <c r="F25" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>32</v>
       </c>
@@ -1203,8 +1378,11 @@
       <c r="F26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>33</v>
       </c>
@@ -1223,8 +1401,11 @@
       <c r="F27" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>36</v>
       </c>
@@ -1243,8 +1424,11 @@
       <c r="F28" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>39</v>
       </c>
@@ -1263,8 +1447,11 @@
       <c r="F29" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>40</v>
       </c>
@@ -1283,8 +1470,11 @@
       <c r="F30" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>41</v>
       </c>
@@ -1303,8 +1493,11 @@
       <c r="F31" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>46</v>
       </c>
@@ -1323,8 +1516,11 @@
       <c r="F32" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>47</v>
       </c>
@@ -1343,8 +1539,11 @@
       <c r="F33" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>48</v>
       </c>
@@ -1363,8 +1562,11 @@
       <c r="F34" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>49</v>
       </c>
@@ -1382,6 +1584,9 @@
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1391,24 +1596,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
